--- a/01.設計/cms/処理設計_CMS.xlsx
+++ b/01.設計/cms/処理設計_CMS.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keiko.kawamura\Documents\20190902_AR\GitHub_Document\msar_Documents\01.設計\cms\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B8E371-98D7-440B-808A-7751EA341966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25000" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="1310" yWindow="470" windowWidth="16590" windowHeight="8060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="処理一覧" sheetId="1" r:id="rId1"/>
     <sheet name="アルバム管理 一覧" sheetId="8" r:id="rId2"/>
     <sheet name="バッチ処理" sheetId="7" r:id="rId3"/>
+    <sheet name="メッセージ一覧" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>概要説明</t>
     <rPh sb="0" eb="4">
@@ -58,10 +65,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
@@ -69,13 +72,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>サーバ内エラー</t>
-    <rPh sb="3" eb="4">
-      <t>ナイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>文字列</t>
     <rPh sb="0" eb="3">
       <t>モジレツ</t>
@@ -83,18 +79,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>albumid</t>
-  </si>
-  <si>
-    <t>updatetime</t>
-  </si>
-  <si>
-    <t>enable</t>
-  </si>
-  <si>
-    <t>expire</t>
-  </si>
-  <si>
     <t>変数型</t>
     <rPh sb="0" eb="3">
       <t>ヘンスウガタ</t>
@@ -113,10 +97,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ステータス コード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>初期値／固定値</t>
     <rPh sb="0" eb="3">
       <t>ショキチ</t>
@@ -124,46 +104,6 @@
     <rPh sb="4" eb="7">
       <t>コテイチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>要求するアルバムデータのアルバムID</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理成功</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理に成功しているが、返却するデータが 0 個の場合。</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンキャクチ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>500 Internal Server Error</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -304,22 +244,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>{</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーコード／メッセージ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>400 Bad Request</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リクエストエラー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>INPUT</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -338,10 +262,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">■ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>バッチ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -372,13 +292,143 @@
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lock_cleaner</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>album_checker</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>make_swap_partition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>marker_checker</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>requestからpageを取り出す</t>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ない場合は0をセットする</t>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>disable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BOOL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■ アルバム管理</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッセージ文</t>
+    <rPh sb="5" eb="6">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■ メッセージ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用箇所</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アルバムの作成が成功になりました。アルバムが有効にされています。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理名</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>編集が成功しました！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アルバムのアクティブ化に失敗しました！</t>
+  </si>
+  <si>
+    <t>アルバムに画像の最大数は'.MAX_MARKERS_IN_ALBUM.'枚です。</t>
+  </si>
+  <si>
+    <t>アルバムが作成されていますので再操作してください。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像が作成されているので再度操作してください。</t>
+  </si>
+  <si>
+    <t>画像が編集されているので再度操作してください。</t>
+  </si>
+  <si>
+    <t>画像が削除されているので再度操作してください。</t>
+  </si>
+  <si>
+    <t>画像にエラーが発生されたので編集できません。</t>
+  </si>
+  <si>
+    <t>画像が削除されました。</t>
+  </si>
+  <si>
+    <t>画像が削除されているので、後で操作してください。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -424,6 +474,7 @@
       <sz val="12"/>
       <color theme="0" tint="-0.14999847407452621"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -431,12 +482,22 @@
       <sz val="12"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -461,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -507,6 +568,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -621,7 +724,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -686,17 +789,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="111">
@@ -814,6 +931,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1161,14 +1286,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" style="3" customWidth="1"/>
@@ -1177,14 +1300,14 @@
     <col min="5" max="16384" width="12.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1196,80 +1319,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31">
+    <row r="4" spans="1:4" ht="28" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D5" s="24"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" ht="44">
+    <row r="7" spans="1:4" ht="42" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -1281,50 +1404,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="D14" s="21"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>3</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>4</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="D17" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1334,12 +1465,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="6" width="3.33203125" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
@@ -1347,9 +1480,9 @@
     <col min="15" max="15" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1365,9 +1498,9 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1381,23 +1514,23 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
     </row>
-    <row r="5" spans="2:15" ht="53" customHeight="1">
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-    </row>
-    <row r="8" spans="2:15">
+    <row r="5" spans="2:15" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C8" s="15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -1411,7 +1544,7 @@
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -1425,58 +1558,56 @@
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C10" s="14"/>
       <c r="D10" s="11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>18</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I11" s="16"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C12" s="14"/>
       <c r="D12" s="16" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="14"/>
@@ -1485,16 +1616,16 @@
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C13" s="14"/>
       <c r="D13" s="16" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="14"/>
@@ -1503,17 +1634,13 @@
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C14" s="14"/>
-      <c r="D14" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -1521,9 +1648,9 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C16" s="15" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -1537,7 +1664,7 @@
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -1551,33 +1678,31 @@
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="14"/>
       <c r="D18" s="11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -1589,7 +1714,7 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -1603,7 +1728,7 @@
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -1617,11 +1742,9 @@
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="14"/>
-      <c r="D22" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -1633,220 +1756,133 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="24" spans="3:14">
-      <c r="C24" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-    </row>
-    <row r="26" spans="3:14">
-      <c r="D26" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-    </row>
-    <row r="27" spans="3:14">
-      <c r="D27" s="30">
-        <v>200</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14">
-      <c r="D28" s="31">
-        <v>204</v>
-      </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14">
-      <c r="D29" s="31">
-        <v>304</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-    </row>
-    <row r="30" spans="3:14">
-      <c r="D30" s="31" t="s">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="G28" s="10"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
+      <c r="G29" s="10"/>
+      <c r="H29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="G30" s="10"/>
       <c r="H30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="3:14">
-      <c r="D31" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-    </row>
-    <row r="34" spans="3:14">
-      <c r="C34" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-    </row>
-    <row r="36" spans="3:14">
-      <c r="D36" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N36" s="11"/>
-    </row>
-    <row r="37" spans="3:14">
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="G31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="G32" s="10"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G33" s="10"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G34" s="10"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G35" s="10"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G36" s="10"/>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G37" s="10"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="3:14">
+    <row r="38" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G38" s="10"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="3:14">
+    <row r="39" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G39" s="10"/>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="3:14">
+    <row r="40" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G40" s="10"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="3:14">
+    <row r="41" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G41" s="10"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="3:14">
+    <row r="42" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G42" s="10"/>
       <c r="L42" s="10"/>
     </row>
-    <row r="43" spans="3:14">
+    <row r="43" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G43" s="10"/>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="3:14">
+    <row r="44" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G44" s="10"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="3:14">
+    <row r="45" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G45" s="10"/>
       <c r="L45" s="10"/>
     </row>
-    <row r="46" spans="3:14">
+    <row r="46" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G46" s="10"/>
       <c r="L46" s="10"/>
     </row>
-    <row r="47" spans="3:14">
-      <c r="G47" s="10"/>
-      <c r="L47" s="10"/>
-    </row>
-    <row r="48" spans="3:14">
-      <c r="G48" s="10"/>
-      <c r="L48" s="10"/>
-    </row>
-    <row r="49" spans="7:12">
-      <c r="G49" s="10"/>
-      <c r="L49" s="10"/>
-    </row>
-    <row r="50" spans="7:12">
-      <c r="G50" s="10"/>
-      <c r="L50" s="10"/>
-    </row>
-    <row r="51" spans="7:12">
-      <c r="G51" s="10"/>
-      <c r="L51" s="10"/>
-    </row>
-    <row r="52" spans="7:12">
-      <c r="G52" s="10"/>
-      <c r="L52" s="10"/>
-    </row>
-    <row r="53" spans="7:12">
-      <c r="G53" s="10"/>
-      <c r="L53" s="10"/>
-    </row>
-    <row r="54" spans="7:12">
-      <c r="G54" s="10"/>
-      <c r="L54" s="10"/>
-    </row>
-    <row r="55" spans="7:12">
-      <c r="G55" s="10"/>
-      <c r="L55" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D31:G31"/>
+  <mergeCells count="1">
     <mergeCell ref="C5:N5"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1856,12 +1892,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1871,4 +1909,332 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA590DB6-77AB-4331-8074-CAAF0FDBB91B}">
+  <dimension ref="B2:O17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="6" width="3.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="9" max="10" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C4" s="37"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="37"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C5" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C6" s="40">
+        <v>1</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C7" s="31">
+        <v>2</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C8" s="31">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C9" s="31">
+        <v>4</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C10" s="31">
+        <v>5</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C11" s="31">
+        <v>6</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C12" s="31">
+        <v>7</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C13" s="31">
+        <v>8</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C14" s="31">
+        <v>9</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C15" s="31">
+        <v>10</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C16" s="31">
+        <v>11</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C17" s="32">
+        <v>12</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="39"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>